--- a/Planning6~7.xlsx
+++ b/Planning6~7.xlsx
@@ -141,9 +141,6 @@
     <t>Hammer</t>
   </si>
   <si>
-    <t>SpeedBoost</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>PickUp blocks</t>
+  </si>
+  <si>
+    <t>Bomb</t>
   </si>
 </sst>
 </file>
@@ -258,19 +258,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,13 +645,13 @@
       <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>42</v>
+      <c r="R7" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="R8" s="8"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
@@ -666,7 +667,7 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>2</v>
       </c>
     </row>
@@ -677,18 +678,18 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="8">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="7">
         <v>4</v>
       </c>
     </row>
@@ -702,7 +703,7 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="7">
         <v>5</v>
       </c>
     </row>
@@ -713,18 +714,18 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="7">
         <v>2</v>
       </c>
     </row>
@@ -747,8 +748,8 @@
       <c r="K14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>35</v>
+      <c r="L14" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>36</v>
@@ -763,9 +764,9 @@
         <v>40</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="8">
+        <v>35</v>
+      </c>
+      <c r="R14" s="7">
         <v>6</v>
       </c>
     </row>
@@ -785,7 +786,7 @@
       <c r="J15">
         <v>2</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="7">
         <v>3</v>
       </c>
     </row>
@@ -802,24 +803,24 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
         <v>2</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
@@ -827,20 +828,20 @@
       <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="8">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="7">
         <v>6</v>
       </c>
     </row>
@@ -854,7 +855,7 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>4</v>
       </c>
     </row>
@@ -874,7 +875,7 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <v>2</v>
       </c>
     </row>
@@ -894,7 +895,7 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>1</v>
       </c>
     </row>
@@ -914,7 +915,7 @@
       <c r="J21">
         <v>5</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <v>5</v>
       </c>
     </row>
@@ -926,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
@@ -934,7 +935,7 @@
       <c r="J22">
         <v>5</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <v>5</v>
       </c>
     </row>
@@ -945,11 +946,11 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
         <v>6</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <v>5</v>
       </c>
     </row>
@@ -963,12 +964,12 @@
       <c r="J24">
         <v>10</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R30" s="8"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
@@ -977,18 +978,18 @@
       <c r="H31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
         <v>1</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="8">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="7">
         <v>4</v>
       </c>
     </row>
@@ -999,18 +1000,18 @@
       <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
         <v>1</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="8">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1021,18 +1022,18 @@
       <c r="H33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="7"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="8">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1047,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="6"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="8">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1064,18 +1065,18 @@
       <c r="H35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
         <v>3</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="8">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1086,20 +1087,20 @@
       <c r="H36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>3</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="8">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1110,18 +1111,18 @@
       <c r="H37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9">
+      <c r="I37" s="8"/>
+      <c r="J37" s="8">
         <v>4</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="8">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="7">
         <v>3</v>
       </c>
     </row>

--- a/Planning6~7.xlsx
+++ b/Planning6~7.xlsx
@@ -196,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,12 +218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -267,10 +261,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,13 +638,13 @@
       <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
-      <c r="R8" s="7"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
@@ -667,7 +660,7 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>2</v>
       </c>
     </row>
@@ -678,18 +671,18 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="7">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="6">
         <v>4</v>
       </c>
     </row>
@@ -703,7 +696,7 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>5</v>
       </c>
     </row>
@@ -714,18 +707,18 @@
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="7">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="6">
         <v>2</v>
       </c>
     </row>
@@ -766,7 +759,7 @@
       <c r="Q14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>6</v>
       </c>
     </row>
@@ -786,7 +779,7 @@
       <c r="J15">
         <v>2</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>3</v>
       </c>
     </row>
@@ -803,18 +796,18 @@
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7">
         <v>2</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="7">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="6">
         <v>2</v>
       </c>
     </row>
@@ -828,20 +821,20 @@
       <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="7">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="6">
         <v>6</v>
       </c>
     </row>
@@ -855,7 +848,7 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <v>4</v>
       </c>
     </row>
@@ -875,7 +868,7 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>2</v>
       </c>
     </row>
@@ -895,7 +888,7 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -915,7 +908,7 @@
       <c r="J21">
         <v>5</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="6">
         <v>5</v>
       </c>
     </row>
@@ -935,7 +928,7 @@
       <c r="J22">
         <v>5</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="6">
         <v>5</v>
       </c>
     </row>
@@ -946,11 +939,11 @@
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7">
         <v>6</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="6">
         <v>5</v>
       </c>
     </row>
@@ -964,12 +957,12 @@
       <c r="J24">
         <v>10</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R30" s="7"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
@@ -978,67 +971,67 @@
       <c r="H31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7">
         <v>1</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="7">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7">
         <v>1</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="7">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7">
         <v>1</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="7">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -1051,56 +1044,56 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="5"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="7">
+      <c r="R34" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7">
         <v>3</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="7">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>3</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="7">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1111,18 +1104,18 @@
       <c r="H37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7">
         <v>4</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="7">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="6">
         <v>3</v>
       </c>
     </row>

--- a/Planning6~7.xlsx
+++ b/Planning6~7.xlsx
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -665,7 +665,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -687,7 +687,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -701,7 +701,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -735,6 +735,7 @@
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I14" s="4"/>
       <c r="J14">
         <v>1</v>
       </c>
@@ -770,7 +771,7 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -812,7 +813,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -821,13 +822,13 @@
       <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N17" s="7"/>
@@ -839,7 +840,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -899,7 +900,7 @@
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -919,7 +920,7 @@
       <c r="B22">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -965,7 +966,7 @@
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -1098,7 +1099,7 @@
       </c>
     </row>
     <row r="37" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="5" t="s">
